--- a/report_draft.xlsx
+++ b/report_draft.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diogofonte/armis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{29672B2F-9A46-1045-9E15-F12297CBA71B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DE2FBA-1481-ED4F-A9A5-A0E64B814EFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{3145719E-DF87-494D-A1F1-3AF097E2A4F8}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{3145719E-DF87-494D-A1F1-3AF097E2A4F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
   <si>
     <t>Projeto</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>Margem Horária (horas previstas - horas realizadas)</t>
-  </si>
-  <si>
-    <t>for each task:</t>
   </si>
   <si>
     <t>Horas Realizadas</t>
@@ -147,9 +144,6 @@
     </r>
   </si>
   <si>
-    <t>-----------------------------------------------------------</t>
-  </si>
-  <si>
     <t>Área</t>
   </si>
   <si>
@@ -181,6 +175,15 @@
   </si>
   <si>
     <t>y - perfis</t>
+  </si>
+  <si>
+    <t>select: tarefa (do projeto)</t>
+  </si>
+  <si>
+    <t>-------------------------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t>Horas Realizadas em Tarefas</t>
   </si>
 </sst>
 </file>
@@ -550,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A59F16A-FBF6-2745-83A2-81BBFD94D240}">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -566,13 +569,13 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
-        <v>11</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -583,13 +586,13 @@
         <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J3" t="s">
         <v>5</v>
       </c>
       <c r="M3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -597,10 +600,10 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -608,10 +611,10 @@
         <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="M5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -619,10 +622,10 @@
         <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="J7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -630,7 +633,7 @@
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -638,91 +641,116 @@
         <v>3</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="24" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L14" t="s">
-        <v>30</v>
+      <c r="G14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="G15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L15" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" t="s">
-        <v>26</v>
-      </c>
-      <c r="J16" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G17" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J17" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G20" t="s">
-        <v>32</v>
-      </c>
-      <c r="J20" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G19" t="s">
+        <v>26</v>
+      </c>
+      <c r="J19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G21" t="s">
+        <v>30</v>
+      </c>
+      <c r="J21" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>22</v>
-      </c>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+      <c r="G25" s="1"/>
+      <c r="J25" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/report_draft.xlsx
+++ b/report_draft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diogofonte/armis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DE2FBA-1481-ED4F-A9A5-A0E64B814EFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97EAC813-2F9F-0D4A-891C-87638E4A16DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{3145719E-DF87-494D-A1F1-3AF097E2A4F8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
   <si>
     <t>Projeto</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>Margem Horária (horas previstas - horas realizadas)</t>
-  </si>
-  <si>
-    <t>Horas Realizadas</t>
   </si>
   <si>
     <t>y - horas imputadas</t>
@@ -183,7 +180,16 @@
     <t>-------------------------------------------------------------------------------</t>
   </si>
   <si>
-    <t>Horas Realizadas em Tarefas</t>
+    <t>Horas Realizadas por Tarefa</t>
+  </si>
+  <si>
+    <t>Horas Realizadas por Mês</t>
+  </si>
+  <si>
+    <t>select: tarefas do projeto</t>
+  </si>
+  <si>
+    <t>Horas Realizadas por mês para uma certa tarefa</t>
   </si>
 </sst>
 </file>
@@ -556,7 +562,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -569,13 +575,13 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
-        <v>10</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -586,13 +592,13 @@
         <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="J3" t="s">
         <v>5</v>
       </c>
       <c r="M3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -600,10 +606,10 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -614,7 +620,7 @@
         <v>3</v>
       </c>
       <c r="M5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -622,10 +628,10 @@
         <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -633,7 +639,7 @@
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -641,42 +647,42 @@
         <v>3</v>
       </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="24" x14ac:dyDescent="0.3">
@@ -688,64 +694,67 @@
     </row>
     <row r="15" spans="1:13" ht="24" x14ac:dyDescent="0.3">
       <c r="G15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" t="s">
         <v>22</v>
       </c>
-      <c r="H15" t="s">
-        <v>23</v>
-      </c>
       <c r="J15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15" t="s">
         <v>27</v>
-      </c>
-      <c r="L15" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="D18" t="s">
+        <v>36</v>
       </c>
       <c r="G18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="24" x14ac:dyDescent="0.3">
